--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7710"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>命名规则</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>永久性反转</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>range(start,end,[step])</t>
+  </si>
+  <si>
+    <t>"step"：步长</t>
+  </si>
+  <si>
+    <t>list[range(start,end,[step])]</t>
+  </si>
+  <si>
+    <t>创建列表</t>
   </si>
 </sst>
 </file>
@@ -116,14 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,36 +139,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,23 +160,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,19 +219,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,8 +235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,15 +245,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +474,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,6 +502,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -488,24 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +546,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1121,58 +1136,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>命名规则</t>
   </si>
@@ -105,10 +105,28 @@
     <t>"step"：步长</t>
   </si>
   <si>
-    <t>list[range(start,end,[step])]</t>
-  </si>
-  <si>
-    <t>创建列表</t>
+    <t>列表复制</t>
+  </si>
+  <si>
+    <t>A=B</t>
+  </si>
+  <si>
+    <t>弱复制</t>
+  </si>
+  <si>
+    <t>A=B[:]</t>
+  </si>
+  <si>
+    <t>强复制</t>
+  </si>
+  <si>
+    <t>元组</t>
+  </si>
+  <si>
+    <t>tuple a=(1,2,3)</t>
+  </si>
+  <si>
+    <t>元组（不可变列表）</t>
   </si>
 </sst>
 </file>
@@ -117,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,7 +156,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,69 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,9 +231,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,22 +255,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,23 +498,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +560,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -556,24 +592,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +612,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1201,12 +1219,34 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -16,50 +16,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>命名规则</t>
   </si>
   <si>
+    <t>文件名规则</t>
+  </si>
+  <si>
     <t>默认文件名小写</t>
   </si>
   <si>
-    <t>大小写类型转换</t>
-  </si>
-  <si>
-    <t>elem.upper/lower/title()</t>
+    <t>常用操作</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>range(start,end,[step])</t>
+  </si>
+  <si>
+    <t>"step"：步长</t>
+  </si>
+  <si>
+    <t>元组</t>
+  </si>
+  <si>
+    <t>tuple a=(1,2,3)</t>
+  </si>
+  <si>
+    <t>元组（不可变列表）</t>
+  </si>
+  <si>
+    <t>字符串操作</t>
+  </si>
+  <si>
+    <t>大小写转换</t>
+  </si>
+  <si>
+    <t>str.upper/lower/title()</t>
   </si>
   <si>
     <t>全大写、全小写、首字母大写</t>
   </si>
   <si>
-    <t>去除两端空格</t>
-  </si>
-  <si>
-    <t>elem.strip/lstrip/rstrip()</t>
-  </si>
-  <si>
-    <t>乘方</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>列表添加元素</t>
+    <t>去除空格</t>
+  </si>
+  <si>
+    <t>str.strip/lstrip/rstrip()</t>
+  </si>
+  <si>
+    <t>去除两端、左侧、右侧空格</t>
+  </si>
+  <si>
+    <t>列表操作</t>
+  </si>
+  <si>
+    <t>列表添加</t>
   </si>
   <si>
     <t>elem.append()</t>
   </si>
   <si>
+    <t>列表末尾添加元素</t>
+  </si>
+  <si>
     <t>elem.insert(index,elem)</t>
   </si>
   <si>
-    <t>列表删除元素</t>
+    <t>列表指定位置添加元素</t>
+  </si>
+  <si>
+    <t>列表删除</t>
   </si>
   <si>
     <t>del list[index]</t>
   </si>
   <si>
+    <t>列表删除指定位置元素</t>
+  </si>
+  <si>
     <t>elem.pop([index])</t>
   </si>
   <si>
@@ -93,16 +129,7 @@
     <t>elem.reverse()</t>
   </si>
   <si>
-    <t>永久性反转</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>range(start,end,[step])</t>
-  </si>
-  <si>
-    <t>"step"：步长</t>
+    <t>列表永久性反转</t>
   </si>
   <si>
     <t>列表复制</t>
@@ -111,22 +138,13 @@
     <t>A=B</t>
   </si>
   <si>
-    <t>弱复制</t>
+    <t>列表弱复制</t>
   </si>
   <si>
     <t>A=B[:]</t>
   </si>
   <si>
-    <t>强复制</t>
-  </si>
-  <si>
-    <t>元组</t>
-  </si>
-  <si>
-    <t>tuple a=(1,2,3)</t>
-  </si>
-  <si>
-    <t>元组（不可变列表）</t>
+    <t>列表强复制</t>
   </si>
 </sst>
 </file>
@@ -135,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,6 +167,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,14 +212,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,13 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -193,25 +242,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,6 +265,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -238,37 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -280,13 +305,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,13 +319,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,61 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,103 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,9 +515,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -584,11 +604,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,159 +1112,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="3" width="50.625" customWidth="1"/>
+    <col min="1" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>命名规则</t>
   </si>
@@ -27,6 +27,18 @@
     <t>默认文件名小写</t>
   </si>
   <si>
+    <t>四则运算</t>
+  </si>
+  <si>
+    <t>求模</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>"-7%3=2"</t>
+  </si>
+  <si>
     <t>常用操作</t>
   </si>
   <si>
@@ -48,6 +60,135 @@
     <t>元组（不可变列表）</t>
   </si>
   <si>
+    <t>集合</t>
+  </si>
+  <si>
+    <t>set()</t>
+  </si>
+  <si>
+    <t>使用集合去重</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>input(msg)</t>
+  </si>
+  <si>
+    <t>显示信息并等待输入</t>
+  </si>
+  <si>
+    <t>eval</t>
+  </si>
+  <si>
+    <t>eval(str)</t>
+  </si>
+  <si>
+    <t>将字符串转换成表达式</t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>reverse(str/array)</t>
+  </si>
+  <si>
+    <r>
+      <t>返回反转后的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迭代器</t>
+    </r>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>map(lambda x:x**2,array)</t>
+  </si>
+  <si>
+    <r>
+      <t>对指定的序列做映射、最终返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迭代器</t>
+    </r>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>reduce(lambda x,y:x*y,array)</t>
+  </si>
+  <si>
+    <t>对指定序列元素进行乘积</t>
+  </si>
+  <si>
+    <t>：已迁移至functools</t>
+  </si>
+  <si>
+    <t>reduce(lambda x,y:x+y,chars)</t>
+  </si>
+  <si>
+    <t>连接字母为字符串</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>filter(lambda x:x%2!=0,array)</t>
+  </si>
+  <si>
+    <r>
+      <t>过滤不符合条件的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迭代器</t>
+    </r>
+  </si>
+  <si>
+    <t>enumerare</t>
+  </si>
+  <si>
+    <t>enumerate(array)</t>
+  </si>
+  <si>
+    <r>
+      <t>返回序列号和元素的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>迭代器</t>
+    </r>
+  </si>
+  <si>
     <t>字符串操作</t>
   </si>
   <si>
@@ -72,28 +213,28 @@
     <t>列表操作</t>
   </si>
   <si>
-    <t>列表添加</t>
+    <t>添加</t>
   </si>
   <si>
     <t>elem.append()</t>
   </si>
   <si>
-    <t>列表末尾添加元素</t>
+    <t>末尾添加元素</t>
   </si>
   <si>
     <t>elem.insert(index,elem)</t>
   </si>
   <si>
-    <t>列表指定位置添加元素</t>
-  </si>
-  <si>
-    <t>列表删除</t>
-  </si>
-  <si>
-    <t>del list[index]</t>
-  </si>
-  <si>
-    <t>列表删除指定位置元素</t>
+    <t>指定位置添加元素</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>dellist[index]</t>
+  </si>
+  <si>
+    <t>删除指定位置元素</t>
   </si>
   <si>
     <t>elem.pop([index])</t>
@@ -105,10 +246,10 @@
     <t>elem.remove(elem)</t>
   </si>
   <si>
-    <t>删除指定元素值(仅一个)</t>
-  </si>
-  <si>
-    <t>列表排序</t>
+    <t>删除指定元素值（仅一个）</t>
+  </si>
+  <si>
+    <t>排序</t>
   </si>
   <si>
     <t>elem.sort([reverse=True])</t>
@@ -123,28 +264,43 @@
     <t>临时性排序</t>
   </si>
   <si>
-    <t>列表反转</t>
+    <t>反转</t>
   </si>
   <si>
     <t>elem.reverse()</t>
   </si>
   <si>
-    <t>列表永久性反转</t>
-  </si>
-  <si>
-    <t>列表复制</t>
+    <t>永久性反转</t>
+  </si>
+  <si>
+    <t>复制</t>
   </si>
   <si>
     <t>A=B</t>
   </si>
   <si>
-    <t>列表弱复制</t>
+    <t>弱复制</t>
   </si>
   <si>
     <t>A=B[:]</t>
   </si>
   <si>
-    <t>列表强复制</t>
+    <t>强复制</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>del dic[key]</t>
+  </si>
+  <si>
+    <t>遍历</t>
+  </si>
+  <si>
+    <t>dic.items/keys/values()</t>
+  </si>
+  <si>
+    <t>键值对、键、值</t>
   </si>
 </sst>
 </file>
@@ -152,12 +308,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +323,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,9 +345,85 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,116 +443,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -319,31 +482,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,151 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,12 +676,64 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -543,70 +758,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,138 +793,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1149,21 +1315,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1185,102 +1351,237 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7710"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>命名规则</t>
   </si>
@@ -27,7 +27,7 @@
     <t>默认文件名小写</t>
   </si>
   <si>
-    <t>四则运算</t>
+    <t>常用操作</t>
   </si>
   <si>
     <t>求模</t>
@@ -39,9 +39,6 @@
     <t>"-7%3=2"</t>
   </si>
   <si>
-    <t>常用操作</t>
-  </si>
-  <si>
     <t>range</t>
   </si>
   <si>
@@ -94,6 +91,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>返回反转后的</t>
     </r>
     <r>
@@ -115,6 +119,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对指定的序列做映射、最终返回</t>
     </r>
     <r>
@@ -154,6 +165,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>过滤不符合条件的</t>
     </r>
     <r>
@@ -175,6 +193,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>返回序列号和元素的</t>
     </r>
     <r>
@@ -323,83 +348,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,25 +421,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,24 +437,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,187 +507,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,6 +698,59 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -706,39 +784,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -753,26 +798,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -781,10 +806,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,133 +818,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1278,10 +1303,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1315,273 +1340,270 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C19" t="s">
         <v>49</v>
       </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
       <c r="C25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D31" t="s">
         <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>命名规则</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>将字符串转换成表达式</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>reduce(lambda x,y:x*y,array)</t>
+  </si>
+  <si>
+    <t>对指定序列元素进行乘积</t>
+  </si>
+  <si>
+    <t>：已迁移至functools</t>
+  </si>
+  <si>
+    <t>reduce(lambda x,y:x+y,chars)</t>
+  </si>
+  <si>
+    <t>连接字母为字符串</t>
+  </si>
+  <si>
+    <t>迭代器</t>
   </si>
   <si>
     <t>reverse</t>
@@ -140,24 +161,6 @@
     </r>
   </si>
   <si>
-    <t>reduce</t>
-  </si>
-  <si>
-    <t>reduce(lambda x,y:x*y,array)</t>
-  </si>
-  <si>
-    <t>对指定序列元素进行乘积</t>
-  </si>
-  <si>
-    <t>：已迁移至functools</t>
-  </si>
-  <si>
-    <t>reduce(lambda x,y:x+y,chars)</t>
-  </si>
-  <si>
-    <t>连接字母为字符串</t>
-  </si>
-  <si>
     <t>filter</t>
   </si>
   <si>
@@ -333,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -348,36 +351,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,25 +430,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,62 +455,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,12 +510,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,174 +691,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,41 +701,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -749,7 +717,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,16 +738,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,6 +766,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -806,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,133 +821,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,10 +1306,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1417,193 +1420,199 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
+    <row r="11" spans="4:4">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
         <v>68</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="D29" t="s">
         <v>73</v>
       </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
       <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
         <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>命名规则</t>
   </si>
@@ -24,7 +24,28 @@
     <t>文件名规则</t>
   </si>
   <si>
-    <t>默认文件名小写</t>
+    <t>小写、下划线</t>
+  </si>
+  <si>
+    <t>函数名规则</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>任意数量实参</t>
+  </si>
+  <si>
+    <t>def func(*param)</t>
+  </si>
+  <si>
+    <t>相当于接收一个实参列表</t>
+  </si>
+  <si>
+    <t>def func(**param)</t>
+  </si>
+  <si>
+    <t>相当于接收一个实参字典</t>
   </si>
   <si>
     <t>常用操作</t>
@@ -337,8 +358,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -357,6 +378,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -372,20 +485,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -393,28 +493,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -422,11 +500,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -438,62 +515,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -516,55 +537,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,25 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,91 +693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,80 +722,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,7 +744,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +830,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,10 +842,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,121 +854,121 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,10 +1327,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1329,278 +1350,278 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
+      <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="D17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" t="s">
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
         <v>66</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>67</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
+      <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>70</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
         <v>74</v>
       </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1613,6 +1634,36 @@
       </c>
       <c r="D32" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
   <si>
     <t>命名规则</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>函数名规则</t>
+  </si>
+  <si>
+    <t>类名规则</t>
+  </si>
+  <si>
+    <t>首字母大写、驼峰命名法</t>
   </si>
   <si>
     <t>函数</t>
@@ -259,6 +265,12 @@
     <t>去除两端、左侧、右侧空格</t>
   </si>
   <si>
+    <t>判断是否存在</t>
+  </si>
+  <si>
+    <t>if 'abc' in str</t>
+  </si>
+  <si>
     <t>列表操作</t>
   </si>
   <si>
@@ -343,6 +355,9 @@
     <t>del dic[key]</t>
   </si>
   <si>
+    <t>OrderedDict</t>
+  </si>
+  <si>
     <t>遍历</t>
   </si>
   <si>
@@ -350,6 +365,57 @@
   </si>
   <si>
     <t>键值对、键、值</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>调用</t>
+  </si>
+  <si>
+    <t>以当前文件所在目录为起点</t>
+  </si>
+  <si>
+    <t>打开并自动释放文件</t>
+  </si>
+  <si>
+    <t>with open(path) as file_object</t>
+  </si>
+  <si>
+    <t>每行会自动添加换行符，可使用rstrip去除</t>
+  </si>
+  <si>
+    <t>打开模式</t>
+  </si>
+  <si>
+    <t>open(path,'r/w/a/r+')</t>
+  </si>
+  <si>
+    <t>读取、写入、追加、读取+写入</t>
+  </si>
+  <si>
+    <t>写入</t>
+  </si>
+  <si>
+    <t>file.write(str)</t>
+  </si>
+  <si>
+    <t>不包含换行符</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>json.dump(object,filename)</t>
+  </si>
+  <si>
+    <t>将对象转为json(并储存)</t>
+  </si>
+  <si>
+    <t>json.load(str)</t>
+  </si>
+  <si>
+    <t>将json转为对象</t>
   </si>
 </sst>
 </file>
@@ -357,10 +423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -372,9 +438,138 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,138 +581,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -531,19 +597,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,163 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,41 +791,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,8 +835,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,21 +888,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,10 +896,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,133 +908,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1327,10 +1393,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1358,21 +1424,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -1380,214 +1446,214 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="s">
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>66</v>
       </c>
@@ -1595,75 +1661,157 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
         <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>74</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>79</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C34" t="s">
         <v>81</v>
       </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
       <c r="C35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D35" t="s">
         <v>84</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+  <si>
+    <t>CrashCourse</t>
+  </si>
   <si>
     <t>命名规则</t>
   </si>
@@ -417,6 +420,45 @@
   <si>
     <t>将json转为对象</t>
   </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>unittest</t>
+  </si>
+  <si>
+    <t>unittest.TestCase</t>
+  </si>
+  <si>
+    <t>需要编写继承类，程序自动执行以test_为开头的方法</t>
+  </si>
+  <si>
+    <t>断言</t>
+  </si>
+  <si>
+    <t>self.assertEqual(y,yhat)</t>
+  </si>
+  <si>
+    <t>通过断言比较运行结果与预测结果 P193</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>unittest.main</t>
+  </si>
+  <si>
+    <t>执行测试，main后无括号</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>setUp()</t>
+  </si>
+  <si>
+    <t>测试前执行</t>
+  </si>
 </sst>
 </file>
 
@@ -424,8 +466,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -451,6 +493,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -459,15 +508,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,105 +624,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,187 +639,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,27 +855,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,15 +874,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,17 +893,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,6 +927,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -896,10 +944,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,136 +959,139 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1393,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A62" sqref="$A62:$XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1405,23 +1456,23 @@
     <col min="3" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:3">
@@ -1429,392 +1480,450 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
+      <c r="D18" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="D21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
         <v>66</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="3:4">
       <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
         <v>80</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>83</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="D36" t="s">
         <v>85</v>
       </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
         <v>87</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="D39" t="s">
         <v>91</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>92</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>94</v>
-      </c>
-      <c r="C41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
         <v>100</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
         <v>101</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="D44" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
         <v>104</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>106</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
         <v>107</v>
       </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/CrashCourse.xlsx
+++ b/CrashCourse.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>CrashCourse</t>
   </si>
@@ -120,9 +120,6 @@
     <t>reduce(lambda x,y:x*y,array)</t>
   </si>
   <si>
-    <t>对指定序列元素进行乘积</t>
-  </si>
-  <si>
     <t>：已迁移至functools</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t>reverse</t>
-  </si>
-  <si>
-    <t>reverse(str/array)</t>
   </si>
   <si>
     <r>
@@ -295,9 +289,6 @@
     <t>删除</t>
   </si>
   <si>
-    <t>dellist[index]</t>
-  </si>
-  <si>
     <t>删除指定位置元素</t>
   </si>
   <si>
@@ -409,12 +400,6 @@
     <t>json</t>
   </si>
   <si>
-    <t>json.dump(object,filename)</t>
-  </si>
-  <si>
-    <t>将对象转为json(并储存)</t>
-  </si>
-  <si>
     <t>json.load(str)</t>
   </si>
   <si>
@@ -458,19 +443,37 @@
   </si>
   <si>
     <t>测试前执行</t>
+  </si>
+  <si>
+    <t>reverse(array/str)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将指定序列连续乘积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del list[index]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将对象转为json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.dump(object,[filename])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename 储存至指定文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,157 +483,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,194 +508,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -838,251 +517,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,64 +527,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1438,33 +828,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A62" sqref="$A62:$XFD72"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1549,7 +939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1560,7 +950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1571,7 +961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>29</v>
       </c>
@@ -1582,384 +972,381 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
+      <c r="D20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
+      <c r="D21" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" t="s">
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
         <v>66</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>71</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
+    <row r="33" spans="1:4">
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D33" t="s">
         <v>74</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>76</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
+    <row r="35" spans="1:4">
+      <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
+    <row r="36" spans="1:4">
+      <c r="C36" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
         <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
         <v>88</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>89</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:4">
+      <c r="B42" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C42" t="s">
         <v>93</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D42" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
+    <row r="43" spans="1:4">
+      <c r="B43" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
+    <row r="44" spans="1:4">
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>99</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
       <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
         <v>109</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D50" t="s">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" t="s">
         <v>111</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C51" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
+      <c r="D51" t="s">
         <v>113</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" t="s">
         <v>114</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C52" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="s">
+      <c r="D52" t="s">
         <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>